--- a/ganhou/元宝.xlsx
+++ b/ganhou/元宝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\abondonedgirl\ganhou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFA1C0E-0F05-4C7B-BD27-B732D8C4B39F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946253C-316A-438F-A0DC-E7AA89C58158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2850" windowWidth="7500" windowHeight="11850" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="3285" yWindow="1620" windowWidth="7500" windowHeight="11850" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>月のギフト</t>
     <rPh sb="0" eb="1">
@@ -748,19 +748,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所持元宝</t>
-    <rPh sb="0" eb="2">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タカラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>幸運舞い込む</t>
     <rPh sb="0" eb="2">
       <t>コウウン</t>
@@ -929,6 +916,26 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>キキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持元宝予想</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンタカラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -938,7 +945,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1212,10 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1242,7 +1246,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -1256,6 +1260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2810,7 +2817,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>所持元宝</c:v>
+                  <c:v>所持元宝予想</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2843,58 +2850,58 @@
                   <c:v>15849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17169</c:v>
+                  <c:v>17179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18489</c:v>
+                  <c:v>18499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19709</c:v>
+                  <c:v>19719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20929</c:v>
+                  <c:v>20939</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21869</c:v>
+                  <c:v>21879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22559</c:v>
+                  <c:v>22569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23849</c:v>
+                  <c:v>23859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24839</c:v>
+                  <c:v>24849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25629</c:v>
+                  <c:v>25639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26319</c:v>
+                  <c:v>26329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27009</c:v>
+                  <c:v>27019</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27699</c:v>
+                  <c:v>27709</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28389</c:v>
+                  <c:v>28399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29079</c:v>
+                  <c:v>29089</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29769</c:v>
+                  <c:v>29779</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30459</c:v>
+                  <c:v>30469</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31149</c:v>
+                  <c:v>31159</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31839</c:v>
+                  <c:v>31849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4392,12 +4399,12 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -4417,10 +4424,10 @@
         <v>29</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
@@ -4438,10 +4445,10 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
@@ -4459,10 +4466,10 @@
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
@@ -4471,17 +4478,17 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F20" s="3"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
@@ -4500,15 +4507,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A45119-1C6C-451A-9E0A-5F25E95013BC}">
-  <dimension ref="A1:AP19"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="18" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
@@ -4524,285 +4531,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="16">
         <v>44463</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="16">
         <v>44464</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="16">
         <v>44465</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="16">
         <v>44466</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="16">
         <v>44467</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="16">
         <v>44468</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>44469</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1" s="25">
         <v>44470</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="25">
         <v>44471</v>
       </c>
-      <c r="L1" s="26">
+      <c r="L1" s="25">
         <v>44472</v>
       </c>
-      <c r="M1" s="26">
+      <c r="M1" s="25">
         <v>44473</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1" s="25">
         <v>44474</v>
       </c>
-      <c r="O1" s="17">
+      <c r="O1" s="16">
         <v>44475</v>
       </c>
-      <c r="P1" s="17">
+      <c r="P1" s="16">
         <v>44476</v>
       </c>
-      <c r="Q1" s="17">
+      <c r="Q1" s="16">
         <v>44477</v>
       </c>
-      <c r="R1" s="17">
+      <c r="R1" s="16">
         <v>44478</v>
       </c>
-      <c r="S1" s="17">
+      <c r="S1" s="16">
         <v>44479</v>
       </c>
-      <c r="T1" s="17">
+      <c r="T1" s="16">
         <v>44480</v>
       </c>
-      <c r="U1" s="17">
+      <c r="U1" s="16">
         <v>44481</v>
       </c>
-      <c r="V1" s="17">
+      <c r="V1" s="16">
         <v>44482</v>
       </c>
-      <c r="W1" s="17">
+      <c r="W1" s="16">
         <v>44483</v>
       </c>
-      <c r="X1" s="17">
+      <c r="X1" s="16">
         <v>44484</v>
       </c>
-      <c r="Y1" s="17">
+      <c r="Y1" s="16">
         <v>44485</v>
       </c>
-      <c r="Z1" s="17">
+      <c r="Z1" s="16">
         <v>44486</v>
       </c>
-      <c r="AA1" s="17">
+      <c r="AA1" s="16">
         <v>44487</v>
       </c>
-      <c r="AB1" s="17">
+      <c r="AB1" s="16">
         <v>44488</v>
       </c>
-      <c r="AC1" s="17">
+      <c r="AC1" s="16">
         <v>44489</v>
       </c>
-      <c r="AD1" s="17">
+      <c r="AD1" s="16">
         <v>44490</v>
       </c>
-      <c r="AE1" s="17">
+      <c r="AE1" s="16">
         <v>44491</v>
       </c>
-      <c r="AF1" s="17">
+      <c r="AF1" s="16">
         <v>44492</v>
       </c>
-      <c r="AG1" s="17">
+      <c r="AG1" s="16">
         <v>44493</v>
       </c>
-      <c r="AH1" s="17">
+      <c r="AH1" s="16">
         <v>44494</v>
       </c>
-      <c r="AI1" s="17">
+      <c r="AI1" s="16">
         <v>44495</v>
       </c>
-      <c r="AJ1" s="17">
+      <c r="AJ1" s="16">
         <v>44496</v>
       </c>
-      <c r="AK1" s="17">
+      <c r="AK1" s="16">
         <v>44497</v>
       </c>
-      <c r="AL1" s="17">
+      <c r="AL1" s="16">
         <v>44498</v>
       </c>
-      <c r="AM1" s="17">
+      <c r="AM1" s="16">
         <v>44499</v>
       </c>
-      <c r="AN1" s="17">
+      <c r="AN1" s="16">
         <v>44500</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <f>C2+1</f>
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <f t="shared" ref="E2:AN2" si="0">D2+1</f>
         <v>2</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="V2" s="18">
+      <c r="V2" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="X2" s="18">
+      <c r="X2" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z2" s="18">
+      <c r="Z2" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AA2" s="18">
+      <c r="AA2" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AB2" s="18">
+      <c r="AB2" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AC2" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AD2" s="18">
+      <c r="AD2" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AE2" s="18">
+      <c r="AE2" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AF2" s="18">
+      <c r="AF2" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AG2" s="18">
+      <c r="AG2" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AH2" s="18">
+      <c r="AH2" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AI2" s="18">
+      <c r="AI2" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AJ2" s="18">
+      <c r="AJ2" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AK2" s="18">
+      <c r="AK2" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AL2" s="18">
+      <c r="AL2" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AM2" s="18">
+      <c r="AM2" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AN2" s="18">
+      <c r="AN2" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="3">
@@ -4827,19 +4834,19 @@
       <c r="I3">
         <v>160</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="27">
         <v>160</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <v>160</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="27">
         <v>160</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="27">
         <v>160</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="27">
         <v>160</v>
       </c>
       <c r="O3">
@@ -4868,7 +4875,7 @@
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="3">
@@ -4890,14 +4897,14 @@
       <c r="H4">
         <v>180</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="3">
@@ -4922,17 +4929,17 @@
       <c r="I5">
         <v>50</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="A6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="20">
         <v>300</v>
       </c>
       <c r="C6" s="3"/>
@@ -4952,20 +4959,20 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:V6" si="1">H6</f>
+        <f t="shared" ref="I6" si="1">H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>240</v>
       </c>
       <c r="C7" s="3"/>
@@ -4987,19 +4994,19 @@
       <c r="I7">
         <v>240</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>240</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <v>240</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="27">
         <v>240</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="27">
         <v>240</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="27">
         <v>240</v>
       </c>
       <c r="O7">
@@ -5027,7 +5034,7 @@
         <v>240</v>
       </c>
       <c r="W7">
-        <f t="shared" ref="D7:W17" si="2">$B7*W$2</f>
+        <f t="shared" ref="W7" si="2">$B7*W$2</f>
         <v>4800</v>
       </c>
       <c r="X7">
@@ -5108,10 +5115,10 @@
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>260</v>
       </c>
       <c r="C8" s="3"/>
@@ -5133,19 +5140,19 @@
       <c r="I8">
         <v>260</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <v>260</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>260</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="27">
         <v>260</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <v>260</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <v>260</v>
       </c>
       <c r="O8">
@@ -5174,10 +5181,10 @@
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>30</v>
       </c>
       <c r="C9" s="3"/>
@@ -5199,19 +5206,19 @@
       <c r="I9">
         <v>30</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <v>30</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <v>30</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="27">
         <v>30</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="27">
         <v>30</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="27">
         <v>30</v>
       </c>
       <c r="O9">
@@ -5240,11 +5247,11 @@
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
-        <v>72</v>
+      <c r="A10" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -5265,52 +5272,52 @@
       <c r="I10" s="1">
         <v>200</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="27">
         <v>0</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="27">
         <v>0</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="27">
         <v>0</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="27">
         <v>0</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <v>0</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="21">
         <v>0</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="21">
         <v>0</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="21">
         <v>0</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="21">
         <v>0</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="21">
         <v>0</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="21">
         <v>0</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="21">
         <v>0</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A11" s="19" t="s">
-        <v>52</v>
+      <c r="A11" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11">
@@ -5329,24 +5336,24 @@
         <v>0</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28">
+      <c r="J11" s="28"/>
+      <c r="K11" s="27">
         <v>100</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <v>100</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="27">
         <v>100</v>
       </c>
-      <c r="N11" s="28"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
-        <v>53</v>
+      <c r="A12" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5357,20 +5364,20 @@
         <v>300</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28">
+      <c r="J12" s="28"/>
+      <c r="K12" s="27">
         <v>400</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>69</v>
+      <c r="A13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5379,15 +5386,15 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28">
+      <c r="J13" s="28"/>
+      <c r="K13" s="27">
         <v>100</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="27">
         <v>200</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="C14" s="3"/>
@@ -5397,11 +5404,11 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
@@ -5411,11 +5418,11 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="C16" s="3"/>
@@ -5425,11 +5432,11 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C17" s="3"/>
@@ -5439,100 +5446,100 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <f>SUM(D3:D17)</f>
         <v>1820</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f t="shared" ref="E18:N18" si="4">SUM(E3:E17)</f>
         <v>1320</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <f t="shared" si="4"/>
         <v>1320</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <f t="shared" si="4"/>
         <v>1220</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <f t="shared" si="4"/>
         <v>1220</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <f t="shared" si="4"/>
         <v>940</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <f t="shared" si="4"/>
         <v>690</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="29">
         <f t="shared" si="4"/>
         <v>1290</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="29">
         <f t="shared" si="4"/>
         <v>990</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="29">
         <f t="shared" si="4"/>
         <v>790</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="29">
         <f t="shared" si="4"/>
         <v>690</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="23">
         <f>SUM(O3:O17)</f>
         <v>690</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="23">
         <f>SUM(P3:P17)</f>
         <v>690</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="23">
         <f t="shared" ref="Q18" si="5">SUM(Q3:Q17)</f>
         <v>690</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="23">
         <f t="shared" ref="R18" si="6">SUM(R3:R17)</f>
         <v>690</v>
       </c>
-      <c r="S18" s="24">
+      <c r="S18" s="23">
         <f t="shared" ref="S18" si="7">SUM(S3:S17)</f>
         <v>690</v>
       </c>
-      <c r="T18" s="24">
+      <c r="T18" s="23">
         <f t="shared" ref="T18" si="8">SUM(T3:T17)</f>
         <v>690</v>
       </c>
-      <c r="U18" s="24">
+      <c r="U18" s="23">
         <f t="shared" ref="U18" si="9">SUM(U3:U17)</f>
         <v>690</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="23">
         <f t="shared" ref="V18" si="10">SUM(V3:V17)</f>
         <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="19" t="s">
-        <v>51</v>
+      <c r="A19" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="B19" s="3">
         <v>14029</v>
@@ -5546,76 +5553,156 @@
         <v>15849</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="11"/>
-        <v>17169</v>
+        <f>D$20+E18</f>
+        <v>17179</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="11"/>
-        <v>18489</v>
+        <f>E$20+F18</f>
+        <v>18499</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="11"/>
-        <v>19709</v>
+        <f t="shared" ref="G19:V19" si="12">F$20+G18</f>
+        <v>19719</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="11"/>
-        <v>20929</v>
+        <f t="shared" si="12"/>
+        <v>20939</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="11"/>
-        <v>21869</v>
-      </c>
-      <c r="J19" s="29">
-        <f t="shared" si="11"/>
-        <v>22559</v>
-      </c>
-      <c r="K19" s="29">
-        <f t="shared" ref="K19" si="12">J$19+K18</f>
-        <v>23849</v>
-      </c>
-      <c r="L19" s="29">
-        <f t="shared" ref="L19" si="13">K$19+L18</f>
-        <v>24839</v>
-      </c>
-      <c r="M19" s="29">
-        <f t="shared" ref="M19" si="14">L$19+M18</f>
-        <v>25629</v>
-      </c>
-      <c r="N19" s="29">
-        <f t="shared" ref="N19" si="15">M$19+N18</f>
-        <v>26319</v>
+        <f t="shared" si="12"/>
+        <v>21879</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="12"/>
+        <v>22569</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="12"/>
+        <v>23859</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="12"/>
+        <v>24849</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="12"/>
+        <v>25639</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="12"/>
+        <v>26329</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" ref="O19" si="16">N$19+O18</f>
-        <v>27009</v>
+        <f t="shared" si="12"/>
+        <v>27019</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" ref="P19:Q19" si="17">O$19+P18</f>
-        <v>27699</v>
+        <f t="shared" si="12"/>
+        <v>27709</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="17"/>
-        <v>28389</v>
+        <f t="shared" si="12"/>
+        <v>28399</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" ref="R19" si="18">Q$19+R18</f>
-        <v>29079</v>
+        <f t="shared" si="12"/>
+        <v>29089</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" ref="S19" si="19">R$19+S18</f>
-        <v>29769</v>
+        <f t="shared" si="12"/>
+        <v>29779</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" ref="T19" si="20">S$19+T18</f>
-        <v>30459</v>
+        <f t="shared" si="12"/>
+        <v>30469</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" ref="U19" si="21">T$19+U18</f>
-        <v>31149</v>
+        <f t="shared" si="12"/>
+        <v>31159</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" ref="V19" si="22">U$19+V18</f>
-        <v>31839</v>
+        <f t="shared" si="12"/>
+        <v>31849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>15859</v>
+      </c>
+      <c r="E20">
+        <f>D$20+E$18</f>
+        <v>17179</v>
+      </c>
+      <c r="F20">
+        <f>E$20+F$18</f>
+        <v>18499</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:V20" si="13">F$20+G$18</f>
+        <v>19719</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="13"/>
+        <v>20939</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="13"/>
+        <v>21879</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="13"/>
+        <v>22569</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="13"/>
+        <v>23859</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="13"/>
+        <v>24849</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="13"/>
+        <v>25639</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="13"/>
+        <v>26329</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="13"/>
+        <v>27019</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="13"/>
+        <v>27709</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="13"/>
+        <v>28399</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="13"/>
+        <v>29089</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="13"/>
+        <v>29779</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="13"/>
+        <v>30469</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="13"/>
+        <v>31159</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="13"/>
+        <v>31849</v>
       </c>
     </row>
   </sheetData>
@@ -5640,18 +5727,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>300</v>
@@ -5663,7 +5750,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -5671,7 +5758,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -5679,7 +5766,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -5687,7 +5774,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>70</v>
@@ -5695,7 +5782,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>80</v>
@@ -5703,7 +5790,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>90</v>
@@ -5711,7 +5798,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -5719,7 +5806,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -5727,7 +5814,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>50</v>

--- a/ganhou/元宝.xlsx
+++ b/ganhou/元宝.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\ganhou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946253C-316A-438F-A0DC-E7AA89C58158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8E22AE-F34A-4A7C-9017-9B5AF5217945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1620" windowWidth="7500" windowHeight="11850" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>月のギフト</t>
     <rPh sb="0" eb="1">
@@ -939,33 +939,36 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>その他任務</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1186,7 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -1219,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1246,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -1321,7 +1324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2558,6 +2561,9 @@
               <c:f>Sheet2!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>その他任務</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2580,6 +2586,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2746,7 +2755,7 @@
                   <c:v>1820</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1320</c:v>
+                  <c:v>1620</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1320</c:v>
@@ -2850,58 +2859,58 @@
                   <c:v>15849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17179</c:v>
+                  <c:v>17479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18499</c:v>
+                  <c:v>18799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19719</c:v>
+                  <c:v>20019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20939</c:v>
+                  <c:v>21239</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21879</c:v>
+                  <c:v>22179</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22569</c:v>
+                  <c:v>22869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23859</c:v>
+                  <c:v>24159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24849</c:v>
+                  <c:v>25149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25639</c:v>
+                  <c:v>25939</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26329</c:v>
+                  <c:v>26629</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27019</c:v>
+                  <c:v>27319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27709</c:v>
+                  <c:v>28009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28399</c:v>
+                  <c:v>28699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29089</c:v>
+                  <c:v>29389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29779</c:v>
+                  <c:v>30079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30469</c:v>
+                  <c:v>30769</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31159</c:v>
+                  <c:v>31459</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31849</c:v>
+                  <c:v>32149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,7 +2974,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1581371152"/>
@@ -3024,7 +3033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1581379472"/>
@@ -3066,7 +3075,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3103,7 +3112,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3999,20 +4008,20 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="6" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="23.75" customWidth="1"/>
-    <col min="11" max="11" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -4046,7 +4055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>8744</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -4148,7 +4157,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -4165,7 +4174,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -4188,7 +4197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -4233,7 +4242,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -4250,7 +4259,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -4263,7 +4272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4285,7 +4294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
@@ -4324,7 +4333,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
@@ -4383,7 +4392,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -4406,7 +4415,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
@@ -4429,7 +4438,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -4450,7 +4459,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
@@ -4471,7 +4480,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="61.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4483,14 +4492,14 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10">
       <c r="F20" s="3"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -4510,27 +4519,27 @@
   <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="18" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42">
       <c r="A1" s="18" t="s">
         <v>42</v>
       </c>
@@ -4649,7 +4658,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" s="17" customFormat="1">
       <c r="A2" s="19" t="s">
         <v>43</v>
       </c>
@@ -4808,7 +4817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:42">
       <c r="A3" s="24" t="s">
         <v>44</v>
       </c>
@@ -4874,7 +4883,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:42">
       <c r="A4" s="24" t="s">
         <v>45</v>
       </c>
@@ -4903,7 +4912,7 @@
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:42">
       <c r="A5" s="24" t="s">
         <v>46</v>
       </c>
@@ -4935,7 +4944,7 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:42">
       <c r="A6" s="24" t="s">
         <v>72</v>
       </c>
@@ -4968,7 +4977,7 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:42">
       <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
@@ -5114,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:42">
       <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
@@ -5180,7 +5189,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:42">
       <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
@@ -5246,7 +5255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:42">
       <c r="A10" s="18" t="s">
         <v>71</v>
       </c>
@@ -5312,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:42">
       <c r="A11" s="18" t="s">
         <v>51</v>
       </c>
@@ -5348,7 +5357,7 @@
       </c>
       <c r="N11" s="27"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42">
       <c r="A12" s="18" t="s">
         <v>52</v>
       </c>
@@ -5372,7 +5381,7 @@
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -5396,10 +5405,15 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:42">
+      <c r="A14" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>300</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5410,7 +5424,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:42">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -5424,7 +5438,7 @@
       <c r="M15" s="28"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:42">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -5438,7 +5452,7 @@
       <c r="M16" s="28"/>
       <c r="N16" s="27"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -5452,7 +5466,7 @@
       <c r="M17" s="28"/>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" s="23" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>50</v>
       </c>
@@ -5466,7 +5480,7 @@
       </c>
       <c r="E18" s="23">
         <f t="shared" ref="E18:N18" si="4">SUM(E3:E17)</f>
-        <v>1320</v>
+        <v>1620</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="4"/>
@@ -5537,7 +5551,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" s="3" customFormat="1">
       <c r="A19" s="18" t="s">
         <v>74</v>
       </c>
@@ -5549,83 +5563,83 @@
         <v>14029</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:J19" si="11">C$19+D18</f>
+        <f t="shared" ref="D19" si="11">C$19+D18</f>
         <v>15849</v>
       </c>
       <c r="E19" s="3">
         <f>D$20+E18</f>
-        <v>17179</v>
+        <v>17479</v>
       </c>
       <c r="F19" s="3">
         <f>E$20+F18</f>
-        <v>18499</v>
+        <v>18799</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ref="G19:V19" si="12">F$20+G18</f>
-        <v>19719</v>
+        <v>20019</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="12"/>
-        <v>20939</v>
+        <v>21239</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="12"/>
-        <v>21879</v>
+        <v>22179</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="12"/>
-        <v>22569</v>
+        <v>22869</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="12"/>
-        <v>23859</v>
+        <v>24159</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
-        <v>24849</v>
+        <v>25149</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="12"/>
-        <v>25639</v>
+        <v>25939</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="12"/>
-        <v>26329</v>
+        <v>26629</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="12"/>
-        <v>27019</v>
+        <v>27319</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="12"/>
-        <v>27709</v>
+        <v>28009</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="12"/>
-        <v>28399</v>
+        <v>28699</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="12"/>
-        <v>29089</v>
+        <v>29389</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" si="12"/>
-        <v>29779</v>
+        <v>30079</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="12"/>
-        <v>30469</v>
+        <v>30769</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="12"/>
-        <v>31159</v>
+        <v>31459</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="12"/>
-        <v>31849</v>
+        <v>32149</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22">
       <c r="A20" s="18" t="s">
         <v>73</v>
       </c>
@@ -5634,75 +5648,75 @@
       </c>
       <c r="E20">
         <f>D$20+E$18</f>
-        <v>17179</v>
+        <v>17479</v>
       </c>
       <c r="F20">
         <f>E$20+F$18</f>
-        <v>18499</v>
+        <v>18799</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20:V20" si="13">F$20+G$18</f>
-        <v>19719</v>
+        <v>20019</v>
       </c>
       <c r="H20">
         <f t="shared" si="13"/>
-        <v>20939</v>
+        <v>21239</v>
       </c>
       <c r="I20">
         <f t="shared" si="13"/>
-        <v>21879</v>
+        <v>22179</v>
       </c>
       <c r="J20">
         <f t="shared" si="13"/>
-        <v>22569</v>
+        <v>22869</v>
       </c>
       <c r="K20">
         <f t="shared" si="13"/>
-        <v>23859</v>
+        <v>24159</v>
       </c>
       <c r="L20">
         <f t="shared" si="13"/>
-        <v>24849</v>
+        <v>25149</v>
       </c>
       <c r="M20">
         <f t="shared" si="13"/>
-        <v>25639</v>
+        <v>25939</v>
       </c>
       <c r="N20">
         <f t="shared" si="13"/>
-        <v>26329</v>
+        <v>26629</v>
       </c>
       <c r="O20">
         <f t="shared" si="13"/>
-        <v>27019</v>
+        <v>27319</v>
       </c>
       <c r="P20">
         <f t="shared" si="13"/>
-        <v>27709</v>
+        <v>28009</v>
       </c>
       <c r="Q20">
         <f t="shared" si="13"/>
-        <v>28399</v>
+        <v>28699</v>
       </c>
       <c r="R20">
         <f t="shared" si="13"/>
-        <v>29089</v>
+        <v>29389</v>
       </c>
       <c r="S20">
         <f t="shared" si="13"/>
-        <v>29779</v>
+        <v>30079</v>
       </c>
       <c r="T20">
         <f t="shared" si="13"/>
-        <v>30469</v>
+        <v>30769</v>
       </c>
       <c r="U20">
         <f t="shared" si="13"/>
-        <v>31159</v>
+        <v>31459</v>
       </c>
       <c r="V20">
         <f t="shared" si="13"/>
-        <v>31849</v>
+        <v>32149</v>
       </c>
     </row>
   </sheetData>
@@ -5720,12 +5734,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5736,7 +5750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5748,7 +5762,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -5756,7 +5770,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -5764,7 +5778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5772,7 +5786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -5780,7 +5794,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5788,7 +5802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -5796,7 +5810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -5804,7 +5818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -5812,7 +5826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -5820,7 +5834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>45</v>
       </c>
@@ -5828,7 +5842,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>50</v>
       </c>

--- a/ganhou/元宝.xlsx
+++ b/ganhou/元宝.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\ganhou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8E22AE-F34A-4A7C-9017-9B5AF5217945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B9DFD-81E6-4A14-8102-722B848CDE11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>月のギフト</t>
     <rPh sb="0" eb="1">
@@ -942,33 +942,43 @@
   <si>
     <t>その他任務</t>
   </si>
+  <si>
+    <t>覚醒丹</t>
+    <rPh sb="0" eb="2">
+      <t>カクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1222,7 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1249,7 +1259,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -1324,7 +1334,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2645,6 +2655,9 @@
               <c:f>Sheet2!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>覚醒丹</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2667,6 +2680,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2755,34 +2798,34 @@
                   <c:v>1820</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1620</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1320</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1220</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1220</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>940</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>690</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1290</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>790</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>690</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>690</c:v>
@@ -2859,58 +2902,58 @@
                   <c:v>15849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17479</c:v>
+                  <c:v>17379</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18799</c:v>
+                  <c:v>18499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20019</c:v>
+                  <c:v>19619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21239</c:v>
+                  <c:v>20739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22179</c:v>
+                  <c:v>21579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22869</c:v>
+                  <c:v>22069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24159</c:v>
+                  <c:v>23259</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25149</c:v>
+                  <c:v>24149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25939</c:v>
+                  <c:v>24839</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26629</c:v>
+                  <c:v>25429</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27319</c:v>
+                  <c:v>26119</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28009</c:v>
+                  <c:v>26809</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28699</c:v>
+                  <c:v>27499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29389</c:v>
+                  <c:v>28189</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30079</c:v>
+                  <c:v>28879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30769</c:v>
+                  <c:v>29569</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31459</c:v>
+                  <c:v>30259</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32149</c:v>
+                  <c:v>30949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2974,7 +3017,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1581371152"/>
@@ -3033,7 +3076,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1581379472"/>
@@ -3075,7 +3118,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3112,7 +3155,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4008,20 +4051,20 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="23.75" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -4055,7 +4098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4138,7 +4181,7 @@
         <v>8744</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4200,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -4174,7 +4217,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -4197,7 +4240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -4225,7 +4268,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -4242,7 +4285,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -4259,7 +4302,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -4272,7 +4315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4294,7 +4337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
@@ -4333,7 +4376,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -4375,7 +4418,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
@@ -4392,7 +4435,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -4415,7 +4458,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
@@ -4438,7 +4481,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -4459,7 +4502,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
@@ -4480,7 +4523,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" ht="61.5" customHeight="1">
+    <row r="19" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4492,14 +4535,14 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F20" s="3"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -4519,27 +4562,27 @@
   <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="18" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>42</v>
       </c>
@@ -4658,7 +4701,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="17" customFormat="1">
+    <row r="2" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>43</v>
       </c>
@@ -4817,7 +4860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>44</v>
       </c>
@@ -4883,7 +4926,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>45</v>
       </c>
@@ -4912,7 +4955,7 @@
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A5" s="24" t="s">
         <v>46</v>
       </c>
@@ -4944,7 +4987,7 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A6" s="24" t="s">
         <v>72</v>
       </c>
@@ -4977,7 +5020,7 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
@@ -5123,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
@@ -5189,7 +5232,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
@@ -5255,7 +5298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>71</v>
       </c>
@@ -5321,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
         <v>51</v>
       </c>
@@ -5357,7 +5400,7 @@
       </c>
       <c r="N11" s="27"/>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
         <v>52</v>
       </c>
@@ -5381,7 +5424,7 @@
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -5405,7 +5448,7 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A14" s="18" t="s">
         <v>75</v>
       </c>
@@ -5424,7 +5467,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -5438,21 +5481,44 @@
       <c r="M15" s="28"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A16" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="27"/>
+      <c r="E16" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H16" s="20">
+        <v>-100</v>
+      </c>
+      <c r="I16" s="20">
+        <v>-100</v>
+      </c>
+      <c r="J16" s="28">
+        <v>-200</v>
+      </c>
+      <c r="K16" s="28">
+        <v>-100</v>
+      </c>
+      <c r="L16" s="28">
+        <v>-100</v>
+      </c>
+      <c r="M16" s="28">
+        <v>-100</v>
+      </c>
+      <c r="N16" s="27">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -5466,7 +5532,7 @@
       <c r="M17" s="28"/>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:22" s="23" customFormat="1">
+    <row r="18" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>50</v>
       </c>
@@ -5480,43 +5546,43 @@
       </c>
       <c r="E18" s="23">
         <f t="shared" ref="E18:N18" si="4">SUM(E3:E17)</f>
-        <v>1620</v>
+        <v>1520</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="4"/>
-        <v>1320</v>
+        <v>1120</v>
       </c>
       <c r="G18" s="23">
         <f t="shared" si="4"/>
-        <v>1220</v>
+        <v>1120</v>
       </c>
       <c r="H18" s="23">
         <f t="shared" si="4"/>
-        <v>1220</v>
+        <v>1120</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="4"/>
-        <v>940</v>
+        <v>840</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" si="4"/>
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="K18" s="29">
         <f t="shared" si="4"/>
-        <v>1290</v>
+        <v>1190</v>
       </c>
       <c r="L18" s="29">
         <f t="shared" si="4"/>
-        <v>990</v>
+        <v>890</v>
       </c>
       <c r="M18" s="29">
         <f t="shared" si="4"/>
-        <v>790</v>
+        <v>690</v>
       </c>
       <c r="N18" s="29">
         <f t="shared" si="4"/>
-        <v>690</v>
+        <v>590</v>
       </c>
       <c r="O18" s="23">
         <f>SUM(O3:O17)</f>
@@ -5551,7 +5617,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1">
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
         <v>74</v>
       </c>
@@ -5568,78 +5634,78 @@
       </c>
       <c r="E19" s="3">
         <f>D$20+E18</f>
-        <v>17479</v>
+        <v>17379</v>
       </c>
       <c r="F19" s="3">
         <f>E$20+F18</f>
-        <v>18799</v>
+        <v>18499</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ref="G19:V19" si="12">F$20+G18</f>
-        <v>20019</v>
+        <v>19619</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="12"/>
-        <v>21239</v>
+        <v>20739</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="12"/>
-        <v>22179</v>
+        <v>21579</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="12"/>
-        <v>22869</v>
+        <v>22069</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="12"/>
-        <v>24159</v>
+        <v>23259</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
-        <v>25149</v>
+        <v>24149</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="12"/>
-        <v>25939</v>
+        <v>24839</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="12"/>
-        <v>26629</v>
+        <v>25429</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="12"/>
-        <v>27319</v>
+        <v>26119</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="12"/>
-        <v>28009</v>
+        <v>26809</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="12"/>
-        <v>28699</v>
+        <v>27499</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="12"/>
-        <v>29389</v>
+        <v>28189</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" si="12"/>
-        <v>30079</v>
+        <v>28879</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="12"/>
-        <v>30769</v>
+        <v>29569</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="12"/>
-        <v>31459</v>
+        <v>30259</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="12"/>
-        <v>32149</v>
+        <v>30949</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="18" t="s">
         <v>73</v>
       </c>
@@ -5648,75 +5714,75 @@
       </c>
       <c r="E20">
         <f>D$20+E$18</f>
-        <v>17479</v>
+        <v>17379</v>
       </c>
       <c r="F20">
         <f>E$20+F$18</f>
-        <v>18799</v>
+        <v>18499</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20:V20" si="13">F$20+G$18</f>
-        <v>20019</v>
+        <v>19619</v>
       </c>
       <c r="H20">
         <f t="shared" si="13"/>
-        <v>21239</v>
+        <v>20739</v>
       </c>
       <c r="I20">
         <f t="shared" si="13"/>
-        <v>22179</v>
+        <v>21579</v>
       </c>
       <c r="J20">
         <f t="shared" si="13"/>
-        <v>22869</v>
+        <v>22069</v>
       </c>
       <c r="K20">
         <f t="shared" si="13"/>
-        <v>24159</v>
+        <v>23259</v>
       </c>
       <c r="L20">
         <f t="shared" si="13"/>
-        <v>25149</v>
+        <v>24149</v>
       </c>
       <c r="M20">
         <f t="shared" si="13"/>
-        <v>25939</v>
+        <v>24839</v>
       </c>
       <c r="N20">
         <f t="shared" si="13"/>
-        <v>26629</v>
+        <v>25429</v>
       </c>
       <c r="O20">
         <f t="shared" si="13"/>
-        <v>27319</v>
+        <v>26119</v>
       </c>
       <c r="P20">
         <f t="shared" si="13"/>
-        <v>28009</v>
+        <v>26809</v>
       </c>
       <c r="Q20">
         <f t="shared" si="13"/>
-        <v>28699</v>
+        <v>27499</v>
       </c>
       <c r="R20">
         <f t="shared" si="13"/>
-        <v>29389</v>
+        <v>28189</v>
       </c>
       <c r="S20">
         <f t="shared" si="13"/>
-        <v>30079</v>
+        <v>28879</v>
       </c>
       <c r="T20">
         <f t="shared" si="13"/>
-        <v>30769</v>
+        <v>29569</v>
       </c>
       <c r="U20">
         <f t="shared" si="13"/>
-        <v>31459</v>
+        <v>30259</v>
       </c>
       <c r="V20">
         <f t="shared" si="13"/>
-        <v>32149</v>
+        <v>30949</v>
       </c>
     </row>
   </sheetData>
@@ -5734,12 +5800,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5750,7 +5816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5762,7 +5828,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -5770,7 +5836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -5778,7 +5844,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5786,7 +5852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -5794,7 +5860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5802,7 +5868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -5810,7 +5876,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -5818,7 +5884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -5826,7 +5892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -5834,7 +5900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>45</v>
       </c>
@@ -5842,7 +5908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>50</v>
       </c>

--- a/ganhou/元宝.xlsx
+++ b/ganhou/元宝.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs19038\git\AbondonedGirl\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B9DFD-81E6-4A14-8102-722B848CDE11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F68C22-6381-4DC5-8102-7EDEE42AB591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="グラフ1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="10月までにできそうなニむ" sheetId="7" r:id="rId4"/>
+    <sheet name="ノア" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>月のギフト</t>
     <rPh sb="0" eb="1">
@@ -949,6 +950,65 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得元宝</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>覚醒丹/絆</t>
+    <rPh sb="0" eb="2">
+      <t>カクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キズナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋳造4まで</t>
+    <rPh sb="0" eb="2">
+      <t>チュウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1,1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2,1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2,2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋳造石</t>
+    <rPh sb="0" eb="2">
+      <t>チュウゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2616,6 +2676,9 @@
               <c:f>Sheet2!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>鋳造石</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2638,6 +2701,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>-300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2798,7 +2864,7 @@
                   <c:v>1820</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1520</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1120</c:v>
@@ -2902,58 +2968,58 @@
                   <c:v>15849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17379</c:v>
+                  <c:v>17079</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18499</c:v>
+                  <c:v>18199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19619</c:v>
+                  <c:v>19319</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20739</c:v>
+                  <c:v>20439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21579</c:v>
+                  <c:v>21279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22069</c:v>
+                  <c:v>21769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23259</c:v>
+                  <c:v>22959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24149</c:v>
+                  <c:v>23849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24839</c:v>
+                  <c:v>24539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25429</c:v>
+                  <c:v>25129</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26119</c:v>
+                  <c:v>25819</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26809</c:v>
+                  <c:v>26509</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27499</c:v>
+                  <c:v>27199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28189</c:v>
+                  <c:v>27889</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28879</c:v>
+                  <c:v>28579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29569</c:v>
+                  <c:v>29269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30259</c:v>
+                  <c:v>29959</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30949</c:v>
+                  <c:v>30649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4562,7 +4628,7 @@
   <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5468,9 +5534,14 @@
       <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="20">
+        <v>-300</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5546,7 +5617,7 @@
       </c>
       <c r="E18" s="23">
         <f t="shared" ref="E18:N18" si="4">SUM(E3:E17)</f>
-        <v>1520</v>
+        <v>1220</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="4"/>
@@ -5634,75 +5705,75 @@
       </c>
       <c r="E19" s="3">
         <f>D$20+E18</f>
-        <v>17379</v>
+        <v>17079</v>
       </c>
       <c r="F19" s="3">
         <f>E$20+F18</f>
-        <v>18499</v>
+        <v>18199</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ref="G19:V19" si="12">F$20+G18</f>
-        <v>19619</v>
+        <v>19319</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="12"/>
-        <v>20739</v>
+        <v>20439</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="12"/>
-        <v>21579</v>
+        <v>21279</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="12"/>
-        <v>22069</v>
+        <v>21769</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="12"/>
-        <v>23259</v>
+        <v>22959</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="12"/>
-        <v>24149</v>
+        <v>23849</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="12"/>
-        <v>24839</v>
+        <v>24539</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="12"/>
-        <v>25429</v>
+        <v>25129</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="12"/>
-        <v>26119</v>
+        <v>25819</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="12"/>
-        <v>26809</v>
+        <v>26509</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="12"/>
-        <v>27499</v>
+        <v>27199</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="12"/>
-        <v>28189</v>
+        <v>27889</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" si="12"/>
-        <v>28879</v>
+        <v>28579</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="12"/>
-        <v>29569</v>
+        <v>29269</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="12"/>
-        <v>30259</v>
+        <v>29959</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="12"/>
-        <v>30949</v>
+        <v>30649</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
@@ -5714,75 +5785,75 @@
       </c>
       <c r="E20">
         <f>D$20+E$18</f>
-        <v>17379</v>
+        <v>17079</v>
       </c>
       <c r="F20">
         <f>E$20+F$18</f>
-        <v>18499</v>
+        <v>18199</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20:V20" si="13">F$20+G$18</f>
-        <v>19619</v>
+        <v>19319</v>
       </c>
       <c r="H20">
         <f t="shared" si="13"/>
-        <v>20739</v>
+        <v>20439</v>
       </c>
       <c r="I20">
         <f t="shared" si="13"/>
-        <v>21579</v>
+        <v>21279</v>
       </c>
       <c r="J20">
         <f t="shared" si="13"/>
-        <v>22069</v>
+        <v>21769</v>
       </c>
       <c r="K20">
         <f t="shared" si="13"/>
-        <v>23259</v>
+        <v>22959</v>
       </c>
       <c r="L20">
         <f t="shared" si="13"/>
-        <v>24149</v>
+        <v>23849</v>
       </c>
       <c r="M20">
         <f t="shared" si="13"/>
-        <v>24839</v>
+        <v>24539</v>
       </c>
       <c r="N20">
         <f t="shared" si="13"/>
-        <v>25429</v>
+        <v>25129</v>
       </c>
       <c r="O20">
         <f t="shared" si="13"/>
-        <v>26119</v>
+        <v>25819</v>
       </c>
       <c r="P20">
         <f t="shared" si="13"/>
-        <v>26809</v>
+        <v>26509</v>
       </c>
       <c r="Q20">
         <f t="shared" si="13"/>
-        <v>27499</v>
+        <v>27199</v>
       </c>
       <c r="R20">
         <f t="shared" si="13"/>
-        <v>28189</v>
+        <v>27889</v>
       </c>
       <c r="S20">
         <f t="shared" si="13"/>
-        <v>28879</v>
+        <v>28579</v>
       </c>
       <c r="T20">
         <f t="shared" si="13"/>
-        <v>29569</v>
+        <v>29269</v>
       </c>
       <c r="U20">
         <f t="shared" si="13"/>
-        <v>30259</v>
+        <v>29959</v>
       </c>
       <c r="V20">
         <f t="shared" si="13"/>
-        <v>30949</v>
+        <v>30649</v>
       </c>
     </row>
   </sheetData>
@@ -5920,4 +5991,638 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2C1F8A-45EE-48D4-B307-473113FB3E7A}">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="16">
+        <v>44467</v>
+      </c>
+      <c r="D1" s="16">
+        <v>44468</v>
+      </c>
+      <c r="E1" s="16">
+        <v>44469</v>
+      </c>
+      <c r="F1" s="25">
+        <v>44470</v>
+      </c>
+      <c r="G1" s="25">
+        <v>44471</v>
+      </c>
+      <c r="H1" s="25">
+        <v>44472</v>
+      </c>
+      <c r="I1" s="25">
+        <v>44473</v>
+      </c>
+      <c r="J1" s="25">
+        <v>44474</v>
+      </c>
+      <c r="K1" s="16">
+        <v>44475</v>
+      </c>
+      <c r="L1" s="16">
+        <v>44476</v>
+      </c>
+      <c r="M1" s="16">
+        <v>44477</v>
+      </c>
+      <c r="N1" s="16">
+        <v>44478</v>
+      </c>
+      <c r="O1" s="16">
+        <v>44479</v>
+      </c>
+      <c r="P1" s="16">
+        <v>44480</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>44481</v>
+      </c>
+      <c r="R1" s="16">
+        <v>44482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3">
+        <v>160</v>
+      </c>
+      <c r="C2" s="3">
+        <v>160</v>
+      </c>
+      <c r="D2">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2">
+        <v>160</v>
+      </c>
+      <c r="G2">
+        <v>160</v>
+      </c>
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>160</v>
+      </c>
+      <c r="J2" s="27">
+        <v>160</v>
+      </c>
+      <c r="K2" s="27">
+        <v>160</v>
+      </c>
+      <c r="L2" s="27">
+        <v>160</v>
+      </c>
+      <c r="M2" s="27">
+        <v>160</v>
+      </c>
+      <c r="N2" s="27">
+        <v>160</v>
+      </c>
+      <c r="O2">
+        <v>160</v>
+      </c>
+      <c r="P2">
+        <v>160</v>
+      </c>
+      <c r="Q2">
+        <v>160</v>
+      </c>
+      <c r="R2">
+        <v>160</v>
+      </c>
+      <c r="S2">
+        <v>160</v>
+      </c>
+      <c r="T2">
+        <v>160</v>
+      </c>
+      <c r="U2">
+        <v>160</v>
+      </c>
+      <c r="V2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="20">
+        <v>240</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <v>240</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3" s="27">
+        <v>240</v>
+      </c>
+      <c r="G3" s="27">
+        <v>240</v>
+      </c>
+      <c r="H3" s="27">
+        <v>240</v>
+      </c>
+      <c r="I3" s="27">
+        <v>240</v>
+      </c>
+      <c r="J3" s="27">
+        <v>240</v>
+      </c>
+      <c r="K3">
+        <v>240</v>
+      </c>
+      <c r="L3">
+        <v>240</v>
+      </c>
+      <c r="M3">
+        <v>240</v>
+      </c>
+      <c r="N3">
+        <v>240</v>
+      </c>
+      <c r="O3">
+        <v>240</v>
+      </c>
+      <c r="P3">
+        <v>240</v>
+      </c>
+      <c r="Q3">
+        <v>240</v>
+      </c>
+      <c r="R3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="20">
+        <v>200</v>
+      </c>
+      <c r="C4" s="20">
+        <v>200</v>
+      </c>
+      <c r="D4" s="20">
+        <v>200</v>
+      </c>
+      <c r="E4" s="20">
+        <v>200</v>
+      </c>
+      <c r="F4" s="20">
+        <v>200</v>
+      </c>
+      <c r="G4" s="20">
+        <v>200</v>
+      </c>
+      <c r="H4" s="20">
+        <v>200</v>
+      </c>
+      <c r="I4" s="20">
+        <v>200</v>
+      </c>
+      <c r="J4" s="20">
+        <v>200</v>
+      </c>
+      <c r="K4" s="20">
+        <v>200</v>
+      </c>
+      <c r="L4" s="20">
+        <v>200</v>
+      </c>
+      <c r="M4" s="20">
+        <v>200</v>
+      </c>
+      <c r="N4" s="20">
+        <v>200</v>
+      </c>
+      <c r="O4" s="20">
+        <v>200</v>
+      </c>
+      <c r="P4" s="20">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>200</v>
+      </c>
+      <c r="R4" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="20">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="27">
+        <v>30</v>
+      </c>
+      <c r="G5" s="27">
+        <v>30</v>
+      </c>
+      <c r="H5" s="27">
+        <v>30</v>
+      </c>
+      <c r="I5" s="27">
+        <v>30</v>
+      </c>
+      <c r="J5" s="27">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <v>30</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="27">
+        <v>100</v>
+      </c>
+      <c r="H7" s="27">
+        <v>100</v>
+      </c>
+      <c r="I7" s="27">
+        <v>100</v>
+      </c>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27">
+        <v>400</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27">
+        <v>100</v>
+      </c>
+      <c r="H9" s="27">
+        <v>200</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>-250</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-250</v>
+      </c>
+      <c r="F12" s="28">
+        <v>-250</v>
+      </c>
+      <c r="G12" s="28">
+        <v>-250</v>
+      </c>
+      <c r="H12" s="28">
+        <v>-250</v>
+      </c>
+      <c r="I12" s="28">
+        <v>-250</v>
+      </c>
+      <c r="J12" s="28">
+        <v>-250</v>
+      </c>
+      <c r="U12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23">
+        <f>SUM(C2:C13)</f>
+        <v>630</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" ref="D14:S14" si="0">SUM(D2:D13)</f>
+        <v>680</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="Q14" s="23">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="R14" s="23">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="S14" s="23">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:J15" si="1">B$15+C$14</f>
+        <v>630</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1310</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1890</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2270</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>3250</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3930</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4410</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="J16">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="J17">
+        <f>SUM(J15:J16)</f>
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="I18">
+        <f>30000-J17</f>
+        <v>24544</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>550</v>
+      </c>
+      <c r="H20">
+        <v>800</v>
+      </c>
+      <c r="I20">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F21">
+        <v>24544</v>
+      </c>
+      <c r="G21">
+        <f>$F$21+G$20</f>
+        <v>25094</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:I21" si="2">$F$21+H$20</f>
+        <v>25344</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>25644</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ganhou/元宝.xlsx
+++ b/ganhou/元宝.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinch\git\AbondonedGirl\ganhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8E22AE-F34A-4A7C-9017-9B5AF5217945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB31C5-A572-4B19-B37A-5C99133B6C30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
+    <workbookView xWindow="1200" yWindow="690" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{1BF5935A-02A0-4DDF-845C-EF9C5BF7E890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="グラフ1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="10月までにできそうなニむ" sheetId="7" r:id="rId4"/>
+    <sheet name="にぼし" sheetId="2" r:id="rId3"/>
+    <sheet name="こめこ" sheetId="8" r:id="rId4"/>
+    <sheet name="10月までにできそうなニむ" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>月のギフト</t>
     <rPh sb="0" eb="1">
@@ -941,6 +942,15 @@
   </si>
   <si>
     <t>その他任務</t>
+  </si>
+  <si>
+    <t>限定</t>
+  </si>
+  <si>
+    <t>鋳造</t>
+  </si>
+  <si>
+    <t>水引・覚醒丹</t>
   </si>
 </sst>
 </file>
@@ -974,7 +984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1026,6 +1036,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,6 +1283,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1340,7 +1359,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
+              <c:f>にぼし!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1361,7 +1380,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$AP$1</c:f>
+              <c:f>にぼし!$B$1:$AP$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日";@</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1493,7 +1512,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$2</c:f>
+              <c:f>にぼし!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1514,7 +1533,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$AP$2</c:f>
+              <c:f>にぼし!$B$2:$AP$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1649,7 +1668,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$3</c:f>
+              <c:f>にぼし!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1670,7 +1689,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$AP$3</c:f>
+              <c:f>にぼし!$B$3:$AP$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1748,7 +1767,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$4</c:f>
+              <c:f>にぼし!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1769,7 +1788,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$AP$4</c:f>
+              <c:f>にぼし!$B$4:$AP$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1805,7 +1824,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$5</c:f>
+              <c:f>にぼし!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1826,7 +1845,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$5:$AP$5</c:f>
+              <c:f>にぼし!$B$5:$AP$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1865,7 +1884,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$6</c:f>
+              <c:f>にぼし!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1886,7 +1905,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$6:$AP$6</c:f>
+              <c:f>にぼし!$B$6:$AP$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1904,12 +1923,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,7 +1938,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$7</c:f>
+              <c:f>にぼし!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1948,7 +1961,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$7:$AP$7</c:f>
+              <c:f>にぼし!$B$7:$AP$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2086,7 +2099,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$8</c:f>
+              <c:f>にぼし!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2109,7 +2122,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$8:$AP$8</c:f>
+              <c:f>にぼし!$B$8:$AP$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2187,7 +2200,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$9</c:f>
+              <c:f>にぼし!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2210,7 +2223,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$9:$AP$9</c:f>
+              <c:f>にぼし!$B$9:$AP$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2288,7 +2301,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$10</c:f>
+              <c:f>にぼし!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2311,7 +2324,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$AP$10</c:f>
+              <c:f>にぼし!$B$10:$AP$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2321,38 +2334,8 @@
                 <c:pt idx="2">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2389,7 +2372,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
+              <c:f>にぼし!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2412,7 +2395,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$11:$AP$11</c:f>
+              <c:f>にぼし!$B$11:$AP$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2457,7 +2440,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$12</c:f>
+              <c:f>にぼし!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2480,7 +2463,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$12:$AP$12</c:f>
+              <c:f>にぼし!$B$12:$AP$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2507,7 +2490,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$13</c:f>
+              <c:f>にぼし!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2531,7 +2514,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$AP$13</c:f>
+              <c:f>にぼし!$B$13:$AP$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2558,7 +2541,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$14</c:f>
+              <c:f>にぼし!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2582,7 +2565,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$14:$AP$14</c:f>
+              <c:f>にぼし!$B$14:$AP$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2603,9 +2586,12 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$15</c:f>
+              <c:f>にぼし!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>限定</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2624,10 +2610,16 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$15:$AP$15</c:f>
+              <c:f>にぼし!$B$15:$AP$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2642,9 +2634,12 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$16</c:f>
+              <c:f>にぼし!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>鋳造</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2663,10 +2658,13 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$16:$AP$16</c:f>
+              <c:f>にぼし!$B$16:$AP$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>-300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2681,7 +2679,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$17</c:f>
+              <c:f>にぼし!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2702,7 +2700,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$17:$AP$17</c:f>
+              <c:f>にぼし!$B$17:$AP$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2720,7 +2718,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$18</c:f>
+              <c:f>にぼし!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2744,7 +2742,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$18:$AP$18</c:f>
+              <c:f>にぼし!$B$18:$AP$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2755,10 +2753,10 @@
                   <c:v>1820</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1620</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1320</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1220</c:v>
@@ -2822,7 +2820,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$19</c:f>
+              <c:f>にぼし!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2845,7 +2843,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$19:$AP$19</c:f>
+              <c:f>にぼし!$B$19:$AP$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2859,58 +2857,58 @@
                   <c:v>15849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17479</c:v>
+                  <c:v>17079</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18799</c:v>
+                  <c:v>18199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20019</c:v>
+                  <c:v>19419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21239</c:v>
+                  <c:v>20639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22179</c:v>
+                  <c:v>21579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22869</c:v>
+                  <c:v>22269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24159</c:v>
+                  <c:v>23559</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25149</c:v>
+                  <c:v>24549</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25939</c:v>
+                  <c:v>25339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26629</c:v>
+                  <c:v>26029</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27319</c:v>
+                  <c:v>26719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28009</c:v>
+                  <c:v>27409</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28699</c:v>
+                  <c:v>28099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29389</c:v>
+                  <c:v>28789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30079</c:v>
+                  <c:v>29479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30769</c:v>
+                  <c:v>30169</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31459</c:v>
+                  <c:v>30859</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32149</c:v>
+                  <c:v>31549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A45119-1C6C-451A-9E0A-5F25E95013BC}">
   <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O11:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4964,13 +4962,6 @@
       <c r="G6">
         <v>300</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6" si="1">H6</f>
-        <v>0</v>
-      </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -5043,83 +5034,83 @@
         <v>240</v>
       </c>
       <c r="W7">
-        <f t="shared" ref="W7" si="2">$B7*W$2</f>
+        <f t="shared" ref="W7" si="1">$B7*W$2</f>
         <v>4800</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7:AP7" si="3">$B7*X$2</f>
+        <f t="shared" ref="X7:AP7" si="2">$B7*X$2</f>
         <v>5040</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5280</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5520</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5760</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6240</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6480</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6720</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6960</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7440</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7680</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7920</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8160</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8400</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8640</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8880</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5266,39 +5257,15 @@
       <c r="D10">
         <v>500</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10" s="1">
         <v>200</v>
       </c>
-      <c r="J10" s="27">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
-        <v>0</v>
-      </c>
-      <c r="O10" s="21">
-        <v>0</v>
-      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="21">
         <v>0</v>
       </c>
@@ -5425,10 +5392,17 @@
       <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:42">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="20">
+        <v>-100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-200</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -5439,9 +5413,14 @@
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:42">
+      <c r="A16" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="20">
+        <v>-300</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5479,43 +5458,43 @@
         <v>1820</v>
       </c>
       <c r="E18" s="23">
-        <f t="shared" ref="E18:N18" si="4">SUM(E3:E17)</f>
-        <v>1620</v>
+        <f t="shared" ref="E18:N18" si="3">SUM(E3:E17)</f>
+        <v>1220</v>
       </c>
       <c r="F18" s="23">
-        <f t="shared" si="4"/>
-        <v>1320</v>
+        <f t="shared" si="3"/>
+        <v>1120</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1220</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1220</v>
       </c>
       <c r="I18" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>940</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>690</v>
       </c>
       <c r="K18" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1290</v>
       </c>
       <c r="L18" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>990</v>
       </c>
       <c r="M18" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>790</v>
       </c>
       <c r="N18" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>690</v>
       </c>
       <c r="O18" s="23">
@@ -5527,27 +5506,27 @@
         <v>690</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" ref="Q18" si="5">SUM(Q3:Q17)</f>
+        <f t="shared" ref="Q18" si="4">SUM(Q3:Q17)</f>
         <v>690</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" ref="R18" si="6">SUM(R3:R17)</f>
+        <f t="shared" ref="R18" si="5">SUM(R3:R17)</f>
         <v>690</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" ref="S18" si="7">SUM(S3:S17)</f>
+        <f t="shared" ref="S18" si="6">SUM(S3:S17)</f>
         <v>690</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" ref="T18" si="8">SUM(T3:T17)</f>
+        <f t="shared" ref="T18" si="7">SUM(T3:T17)</f>
         <v>690</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" ref="U18" si="9">SUM(U3:U17)</f>
+        <f t="shared" ref="U18" si="8">SUM(U3:U17)</f>
         <v>690</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" ref="V18" si="10">SUM(V3:V17)</f>
+        <f t="shared" ref="V18" si="9">SUM(V3:V17)</f>
         <v>690</v>
       </c>
     </row>
@@ -5563,80 +5542,80 @@
         <v>14029</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19" si="11">C$19+D18</f>
+        <f t="shared" ref="D19" si="10">C$19+D18</f>
         <v>15849</v>
       </c>
       <c r="E19" s="3">
         <f>D$20+E18</f>
-        <v>17479</v>
+        <v>17079</v>
       </c>
       <c r="F19" s="3">
         <f>E$20+F18</f>
-        <v>18799</v>
+        <v>18199</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ref="G19:V19" si="12">F$20+G18</f>
-        <v>20019</v>
+        <f t="shared" ref="G19:V19" si="11">F$20+G18</f>
+        <v>19419</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="12"/>
-        <v>21239</v>
+        <f t="shared" si="11"/>
+        <v>20639</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="12"/>
-        <v>22179</v>
+        <f t="shared" si="11"/>
+        <v>21579</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="12"/>
-        <v>22869</v>
+        <f t="shared" si="11"/>
+        <v>22269</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="12"/>
-        <v>24159</v>
+        <f t="shared" si="11"/>
+        <v>23559</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="12"/>
-        <v>25149</v>
+        <f t="shared" si="11"/>
+        <v>24549</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="12"/>
-        <v>25939</v>
+        <f t="shared" si="11"/>
+        <v>25339</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="12"/>
-        <v>26629</v>
+        <f t="shared" si="11"/>
+        <v>26029</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="12"/>
-        <v>27319</v>
+        <f t="shared" si="11"/>
+        <v>26719</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="12"/>
-        <v>28009</v>
+        <f t="shared" si="11"/>
+        <v>27409</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="12"/>
-        <v>28699</v>
+        <f t="shared" si="11"/>
+        <v>28099</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="12"/>
-        <v>29389</v>
+        <f t="shared" si="11"/>
+        <v>28789</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="12"/>
-        <v>30079</v>
+        <f t="shared" si="11"/>
+        <v>29479</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="12"/>
-        <v>30769</v>
+        <f t="shared" si="11"/>
+        <v>30169</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="12"/>
-        <v>31459</v>
+        <f t="shared" si="11"/>
+        <v>30859</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" si="12"/>
-        <v>32149</v>
+        <f t="shared" si="11"/>
+        <v>31549</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -5648,75 +5627,75 @@
       </c>
       <c r="E20">
         <f>D$20+E$18</f>
-        <v>17479</v>
+        <v>17079</v>
       </c>
       <c r="F20">
         <f>E$20+F$18</f>
-        <v>18799</v>
+        <v>18199</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:V20" si="13">F$20+G$18</f>
-        <v>20019</v>
+        <f t="shared" ref="G20:V20" si="12">F$20+G$18</f>
+        <v>19419</v>
       </c>
       <c r="H20">
-        <f t="shared" si="13"/>
-        <v>21239</v>
+        <f t="shared" si="12"/>
+        <v>20639</v>
       </c>
       <c r="I20">
-        <f t="shared" si="13"/>
-        <v>22179</v>
+        <f t="shared" si="12"/>
+        <v>21579</v>
       </c>
       <c r="J20">
-        <f t="shared" si="13"/>
-        <v>22869</v>
+        <f t="shared" si="12"/>
+        <v>22269</v>
       </c>
       <c r="K20">
-        <f t="shared" si="13"/>
-        <v>24159</v>
+        <f t="shared" si="12"/>
+        <v>23559</v>
       </c>
       <c r="L20">
-        <f t="shared" si="13"/>
-        <v>25149</v>
+        <f t="shared" si="12"/>
+        <v>24549</v>
       </c>
       <c r="M20">
-        <f t="shared" si="13"/>
-        <v>25939</v>
+        <f t="shared" si="12"/>
+        <v>25339</v>
       </c>
       <c r="N20">
-        <f t="shared" si="13"/>
-        <v>26629</v>
+        <f t="shared" si="12"/>
+        <v>26029</v>
       </c>
       <c r="O20">
-        <f t="shared" si="13"/>
-        <v>27319</v>
+        <f t="shared" si="12"/>
+        <v>26719</v>
       </c>
       <c r="P20">
-        <f t="shared" si="13"/>
-        <v>28009</v>
+        <f t="shared" si="12"/>
+        <v>27409</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="13"/>
-        <v>28699</v>
+        <f t="shared" si="12"/>
+        <v>28099</v>
       </c>
       <c r="R20">
-        <f t="shared" si="13"/>
-        <v>29389</v>
+        <f t="shared" si="12"/>
+        <v>28789</v>
       </c>
       <c r="S20">
-        <f t="shared" si="13"/>
-        <v>30079</v>
+        <f t="shared" si="12"/>
+        <v>29479</v>
       </c>
       <c r="T20">
-        <f t="shared" si="13"/>
-        <v>30769</v>
+        <f t="shared" si="12"/>
+        <v>30169</v>
       </c>
       <c r="U20">
-        <f t="shared" si="13"/>
-        <v>31459</v>
+        <f t="shared" si="12"/>
+        <v>30859</v>
       </c>
       <c r="V20">
-        <f t="shared" si="13"/>
-        <v>32149</v>
+        <f t="shared" si="12"/>
+        <v>31549</v>
       </c>
     </row>
   </sheetData>
@@ -5727,6 +5706,842 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35157107-0D14-4656-BD3C-92D63B5446A1}">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="16">
+        <v>44463</v>
+      </c>
+      <c r="D1" s="16">
+        <v>44464</v>
+      </c>
+      <c r="E1" s="16">
+        <v>44465</v>
+      </c>
+      <c r="F1" s="16">
+        <v>44466</v>
+      </c>
+      <c r="G1" s="16">
+        <v>44467</v>
+      </c>
+      <c r="H1" s="16">
+        <v>44468</v>
+      </c>
+      <c r="I1" s="16">
+        <v>44469</v>
+      </c>
+      <c r="J1" s="31">
+        <v>44470</v>
+      </c>
+      <c r="K1" s="25">
+        <v>44471</v>
+      </c>
+      <c r="L1" s="25">
+        <v>44472</v>
+      </c>
+      <c r="M1" s="25">
+        <v>44473</v>
+      </c>
+      <c r="N1" s="31">
+        <v>44474</v>
+      </c>
+      <c r="O1" s="16">
+        <v>44475</v>
+      </c>
+      <c r="P1" s="16">
+        <v>44476</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>44477</v>
+      </c>
+      <c r="R1" s="16">
+        <v>44478</v>
+      </c>
+      <c r="S1" s="16">
+        <v>44479</v>
+      </c>
+      <c r="T1" s="16">
+        <v>44480</v>
+      </c>
+      <c r="U1" s="16">
+        <v>44481</v>
+      </c>
+      <c r="V1" s="16">
+        <v>44482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <f>C2+1</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <f t="shared" ref="E2:V2" si="0">D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="17">
+        <f>E2+1</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="17">
+        <f>F2+1</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J2" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K2" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L2" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M2" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N2" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O2" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P2" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q2" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R2" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S2" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="T2" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="U2" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V2" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3">
+        <v>160</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3">
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>160</v>
+      </c>
+      <c r="F3">
+        <v>160</v>
+      </c>
+      <c r="G3">
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>160</v>
+      </c>
+      <c r="J3" s="27">
+        <v>160</v>
+      </c>
+      <c r="K3" s="27">
+        <v>160</v>
+      </c>
+      <c r="L3" s="27">
+        <v>160</v>
+      </c>
+      <c r="M3" s="27">
+        <v>160</v>
+      </c>
+      <c r="N3" s="27">
+        <v>160</v>
+      </c>
+      <c r="O3">
+        <v>160</v>
+      </c>
+      <c r="P3">
+        <v>160</v>
+      </c>
+      <c r="Q3">
+        <v>160</v>
+      </c>
+      <c r="R3">
+        <v>160</v>
+      </c>
+      <c r="S3">
+        <v>160</v>
+      </c>
+      <c r="T3">
+        <v>160</v>
+      </c>
+      <c r="U3">
+        <v>160</v>
+      </c>
+      <c r="V3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="20">
+        <v>240</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <v>240</v>
+      </c>
+      <c r="F4">
+        <v>240</v>
+      </c>
+      <c r="G4">
+        <v>240</v>
+      </c>
+      <c r="H4">
+        <v>240</v>
+      </c>
+      <c r="I4">
+        <v>240</v>
+      </c>
+      <c r="J4" s="27">
+        <v>240</v>
+      </c>
+      <c r="K4" s="27">
+        <v>240</v>
+      </c>
+      <c r="L4" s="27">
+        <v>240</v>
+      </c>
+      <c r="M4" s="27">
+        <v>240</v>
+      </c>
+      <c r="N4" s="27">
+        <v>240</v>
+      </c>
+      <c r="O4">
+        <v>240</v>
+      </c>
+      <c r="P4">
+        <v>240</v>
+      </c>
+      <c r="Q4">
+        <v>240</v>
+      </c>
+      <c r="R4">
+        <v>240</v>
+      </c>
+      <c r="S4">
+        <v>240</v>
+      </c>
+      <c r="T4">
+        <v>240</v>
+      </c>
+      <c r="U4">
+        <v>240</v>
+      </c>
+      <c r="V4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="20">
+        <v>140</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5">
+        <v>140</v>
+      </c>
+      <c r="E5">
+        <v>140</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
+        <v>140</v>
+      </c>
+      <c r="H5">
+        <v>140</v>
+      </c>
+      <c r="I5">
+        <v>140</v>
+      </c>
+      <c r="J5" s="27">
+        <v>140</v>
+      </c>
+      <c r="K5" s="27">
+        <v>140</v>
+      </c>
+      <c r="L5" s="27">
+        <v>140</v>
+      </c>
+      <c r="M5" s="27">
+        <v>140</v>
+      </c>
+      <c r="N5" s="27">
+        <v>140</v>
+      </c>
+      <c r="O5">
+        <v>140</v>
+      </c>
+      <c r="P5">
+        <v>140</v>
+      </c>
+      <c r="Q5">
+        <v>140</v>
+      </c>
+      <c r="R5">
+        <v>140</v>
+      </c>
+      <c r="S5">
+        <v>140</v>
+      </c>
+      <c r="T5">
+        <v>140</v>
+      </c>
+      <c r="U5">
+        <v>260</v>
+      </c>
+      <c r="V5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="20">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6" s="27">
+        <v>30</v>
+      </c>
+      <c r="K6" s="27">
+        <v>30</v>
+      </c>
+      <c r="L6" s="27">
+        <v>30</v>
+      </c>
+      <c r="M6" s="27">
+        <v>30</v>
+      </c>
+      <c r="N6" s="27">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="S6">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>30</v>
+      </c>
+      <c r="U6">
+        <v>30</v>
+      </c>
+      <c r="V6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="I7" s="1">
+        <v>200</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27">
+        <v>100</v>
+      </c>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
+      <c r="M8" s="27">
+        <v>100</v>
+      </c>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="27">
+        <v>400</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="27">
+        <v>100</v>
+      </c>
+      <c r="L10" s="27">
+        <v>200</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="27"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>-250</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-250</v>
+      </c>
+      <c r="J12" s="28">
+        <v>-500</v>
+      </c>
+      <c r="K12" s="28">
+        <v>-250</v>
+      </c>
+      <c r="L12" s="28">
+        <v>-250</v>
+      </c>
+      <c r="M12" s="28">
+        <v>-250</v>
+      </c>
+      <c r="N12" s="27">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="18"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="28">
+        <v>666</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="18"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23">
+        <f>SUM(C3:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23">
+        <f>SUM(H3:H14)</f>
+        <v>620</v>
+      </c>
+      <c r="I15" s="23">
+        <f>SUM(I3:I14)</f>
+        <v>520</v>
+      </c>
+      <c r="J15" s="29">
+        <f>SUM(J3:J14)</f>
+        <v>736</v>
+      </c>
+      <c r="K15" s="29">
+        <f>SUM(K3:K14)</f>
+        <v>920</v>
+      </c>
+      <c r="L15" s="29">
+        <f>SUM(L3:L14)</f>
+        <v>620</v>
+      </c>
+      <c r="M15" s="29">
+        <f>SUM(M3:M14)</f>
+        <v>420</v>
+      </c>
+      <c r="N15" s="29">
+        <f>SUM(N3:N14)</f>
+        <v>70</v>
+      </c>
+      <c r="O15" s="23">
+        <f>SUM(O3:O14)</f>
+        <v>570</v>
+      </c>
+      <c r="P15" s="23">
+        <f>SUM(P3:P14)</f>
+        <v>570</v>
+      </c>
+      <c r="Q15" s="23">
+        <f>SUM(Q3:Q14)</f>
+        <v>570</v>
+      </c>
+      <c r="R15" s="23">
+        <f>SUM(R3:R14)</f>
+        <v>570</v>
+      </c>
+      <c r="S15" s="23">
+        <f>SUM(S3:S14)</f>
+        <v>570</v>
+      </c>
+      <c r="T15" s="23">
+        <f>SUM(T3:T14)</f>
+        <v>570</v>
+      </c>
+      <c r="U15" s="23">
+        <f>SUM(U3:U14)</f>
+        <v>690</v>
+      </c>
+      <c r="V15" s="23">
+        <f>SUM(V3:V14)</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <f>B$16+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" ref="H16:V16" si="1">G$17+H15</f>
+        <v>27620</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>28140</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>28876</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>29796</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>30416</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>30836</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>30906</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>31476</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="1"/>
+        <v>32046</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="1"/>
+        <v>32616</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="1"/>
+        <v>33186</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="1"/>
+        <v>33756</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="1"/>
+        <v>34326</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="1"/>
+        <v>35016</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="1"/>
+        <v>35706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="G17">
+        <v>27000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:V17" si="2">G$17+H$15</f>
+        <v>27620</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>28140</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>28876</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>29796</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>30416</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>30836</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>30906</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>31476</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>32046</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>32616</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>33186</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>33756</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>34326</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>35016</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>35706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA83BFC-6BE5-49B7-805D-87C39333445D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
